--- a/src/main/resources/static/importTemplates/导入学生模版.xlsx
+++ b/src/main/resources/static/importTemplates/导入学生模版.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F8B75481-209B-46FA-84D8-6B0DCE76E6E6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CC5CBFA9-9DBA-4F86-AAF1-102B0784F6D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
-  <si>
-    <t>学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,14 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>班级编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年级编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,13 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,13 +170,6 @@
   </si>
   <si>
     <t>6104041002330320010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201901</t>
-  </si>
-  <si>
-    <t>201901</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -275,11 +249,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -560,35 +532,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="9.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -596,304 +567,205 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>20190101</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>20190102</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>20190103</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>20190104</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>20190105</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>20190106</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>20190107</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>20190108</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>20190109</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>20190110</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
